--- a/取っておくもの/新規 Microsoft Excel ワークブック.xlsx
+++ b/取っておくもの/新規 Microsoft Excel ワークブック.xlsx
@@ -7,87 +7,193 @@
     <workbookView windowWidth="11895" windowHeight="9945"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="参考URL" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId2"/>
+    <sheet name="エラー" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>HTMLに動的にdivなどを追加する方法</t>
   </si>
   <si>
+    <t>ファイル読み込み関係</t>
+  </si>
+  <si>
+    <t>デザイン系</t>
+  </si>
+  <si>
     <t>http://mitsuakikawamorita.com/blog/?p=254</t>
   </si>
   <si>
+    <t>Apache POIの覚え書き Excel読み取り編</t>
+  </si>
+  <si>
+    <t>Webサイトで参考になる メニューのデザイン・レイアウトまとめ</t>
+  </si>
+  <si>
     <t>jsp内でのメソッドの宣言</t>
   </si>
   <si>
+    <t>https://qiita.com/panage/items/4476ff91d1fcec67f525</t>
+  </si>
+  <si>
+    <t>https://handywebdesign.net/2013/03/layout-and-design-about-menu/</t>
+  </si>
+  <si>
     <t>https://www.javadrive.jp/servlet/jsp_scripting/index4.html</t>
   </si>
   <si>
+    <t>POIを使用してJavaからExcelデータを読み込む</t>
+  </si>
+  <si>
     <t>jspの繰り返し処理</t>
   </si>
   <si>
+    <t>http://www.atmarkit.co.jp/ait/articles/0409/07/news099.html</t>
+  </si>
+  <si>
     <t>http://www.rsch.tuis.ac.jp/~nagai/SYS/SYS11n.html</t>
   </si>
   <si>
+    <t>JavaでExcleファイル読み込み</t>
+  </si>
+  <si>
     <t>よくあるリストの追加、編集、削除</t>
   </si>
   <si>
+    <t>http://d.hatena.ne.jp/akihito_sado/20110904/1315153803</t>
+  </si>
+  <si>
     <t>https://ameblo.jp/tyoku123/entry-10434812348.html</t>
   </si>
   <si>
+    <t>Apache POI Cell</t>
+  </si>
+  <si>
     <t>&lt;logic:iterate&gt;で回っている回数を取得するindexId</t>
   </si>
   <si>
+    <t>http://www.ne.jp/asahi/hishidama/home/tech/apache/poi/cell.html</t>
+  </si>
+  <si>
     <t>http://seesaawiki.jp/w/warp1030/d/%3Clogic:iterate%3E%A4%C7%B2%F3%A4%C3%A4%C6%A4%A4%A4%EB%B2%F3%BF%F4%A4%F2%BC%E8%C6%C0%A4%B9%A4%EBindexId</t>
   </si>
   <si>
     <t>JSP→Javascript→サーブレットと値を渡したい</t>
   </si>
   <si>
+    <t>CSS</t>
+  </si>
+  <si>
     <t>https://teratail.com/questions/99801</t>
   </si>
   <si>
+    <t>カラーコード一覧表</t>
+  </si>
+  <si>
     <t>JSPタグリファレンス</t>
   </si>
   <si>
+    <t>http://www.netyasun.com/home/color.htmlｓ</t>
+  </si>
+  <si>
     <t>http://tag.main.jp/index.html</t>
   </si>
   <si>
+    <t>原色大辞典</t>
+  </si>
+  <si>
     <t>「OK/キャンセル」ダイアログを表示して確認・分岐する方法</t>
   </si>
   <si>
+    <t>https://www.colordic.org/</t>
+  </si>
+  <si>
     <t>https://www.nishishi.com/javascript-tips/confirm-dialog.html</t>
   </si>
   <si>
     <t>Struts ActionFormのListに入力データを格納する方法</t>
   </si>
   <si>
+    <t>【HTML】検索フォームの作り方とオシャレなCSSデザイン６選</t>
+  </si>
+  <si>
     <t>https://www13.atwiki.jp/lele/pages/14.html</t>
   </si>
   <si>
+    <t>https://kagesai.net/search-form-design/</t>
+  </si>
+  <si>
     <t>Struts2:Iteratorタグのstatusとか</t>
   </si>
   <si>
+    <t>動くCSSのためのメモ</t>
+  </si>
+  <si>
     <t>https://ameblo.jp/tyoku123/entry-10434877520.html</t>
   </si>
   <si>
+    <t>https://lopan.jp/css-animation/</t>
+  </si>
+  <si>
     <t>JSP: フォームからのデータ送信</t>
   </si>
   <si>
+    <t>スライドショーに使える！CSS Animation 4選 ～CSS初心者がCSS Animationに入門してみた～</t>
+  </si>
+  <si>
     <t>http://www.gi.ce.t.kyoto-u.ac.jp/user/susaki/envinfo/jsp_form.html</t>
   </si>
   <si>
+    <t>http://www.nowhere.co.jp/blog/archives/20180720-150018.html</t>
+  </si>
+  <si>
     <t>数値 ⇔ 文字列変換 Java編</t>
   </si>
   <si>
     <t>http://www.techscore.com/blog/2012/11/28/%E6%95%B0%E5%80%A4-%E2%87%94-%E6%96%87%E5%AD%97%E5%88%97%E5%A4%89%E6%8F%9B-java%E7%B7%A8/</t>
+  </si>
+  <si>
+    <t>HTMLクイックリファレンス</t>
+  </si>
+  <si>
+    <t>http://www.htmq.com/</t>
+  </si>
+  <si>
+    <t>【10分でマスター】onChangeでフォームの項目をコントロールしよう</t>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/25060</t>
+  </si>
+  <si>
+    <t>コンボボックス、セレクトボックスの選択要素を変更したタイミングで処理を実行する (JavaScript プログラミング)</t>
+  </si>
+  <si>
+    <t>https://www.ipentec.com/document/javascript-exec-process-when-selectbox-change-select-item</t>
+  </si>
+  <si>
+    <t>フォーム変更時の処理(onChange)</t>
+  </si>
+  <si>
+    <t>https://www.ajaxtower.jp/js/event/index3.html</t>
+  </si>
+  <si>
+    <t>セレクトメニューの内容を動的に変えるには(JavaScript)</t>
+  </si>
+  <si>
+    <t>https://oni-on-design.com/2013/11/233</t>
+  </si>
+  <si>
+    <t>NoClassDefFoundError</t>
+  </si>
+  <si>
+    <t>クラス定義が見つからない場合に発生するエラー
+インポートするjarファイルが不足している可能性あり</t>
   </si>
 </sst>
 </file>
@@ -109,6 +215,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -129,13 +243,6 @@
       <color rgb="FF3F3F76"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,55 +299,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,169 +394,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,21 +624,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -560,164 +652,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1063,148 +1179,282 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A15:A38"/>
+  <dimension ref="A2:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <sheetData>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="E2" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>8</v>
+      <c r="A17" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="2" t="s">
-        <v>9</v>
+      <c r="A24" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>10</v>
+      <c r="A25" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>11</v>
+      <c r="A26" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>12</v>
+      <c r="A27" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="2" t="s">
-        <v>13</v>
+      <c r="A28" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>14</v>
+      <c r="A29" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="2" t="s">
-        <v>15</v>
+      <c r="A30" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>16</v>
+      <c r="A31" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>17</v>
+      <c r="A32" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>18</v>
+      <c r="A33" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="1" t="s">
-        <v>19</v>
+      <c r="A34" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2" t="s">
-        <v>23</v>
+      <c r="A35" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A16" r:id="rId1" display="http://mitsuakikawamorita.com/blog/?p=254"/>
-    <hyperlink ref="A18" r:id="rId2" display="https://www.javadrive.jp/servlet/jsp_scripting/index4.html"/>
-    <hyperlink ref="A20" r:id="rId3" display="http://www.rsch.tuis.ac.jp/~nagai/SYS/SYS11n.html"/>
-    <hyperlink ref="A22" r:id="rId4" display="https://ameblo.jp/tyoku123/entry-10434812348.html"/>
-    <hyperlink ref="A24" r:id="rId5" display="http://seesaawiki.jp/w/warp1030/d/%3Clogic:iterate%3E%A4%C7%B2%F3%A4%C3%A4%C6%A4%A4%A4%EB%B2%F3%BF%F4%A4%F2%BC%E8%C6%C0%A4%B9%A4%EBindexId"/>
-    <hyperlink ref="A26" r:id="rId6" display="https://teratail.com/questions/99801"/>
-    <hyperlink ref="A28" r:id="rId7" display="http://tag.main.jp/index.html"/>
-    <hyperlink ref="A30" r:id="rId8" display="https://www.nishishi.com/javascript-tips/confirm-dialog.html"/>
-    <hyperlink ref="A32" r:id="rId9" display="https://www13.atwiki.jp/lele/pages/14.html"/>
-    <hyperlink ref="A34" r:id="rId10" display="https://ameblo.jp/tyoku123/entry-10434877520.html"/>
-    <hyperlink ref="A36" r:id="rId11" display="http://www.gi.ce.t.kyoto-u.ac.jp/user/susaki/envinfo/jsp_form.html"/>
-    <hyperlink ref="A38" r:id="rId12" display="http://www.techscore.com/blog/2012/11/28/%E6%95%B0%E5%80%A4-%E2%87%94-%E6%96%87%E5%AD%97%E5%88%97%E5%A4%89%E6%8F%9B-java%E7%B7%A8/"/>
+    <hyperlink ref="A3" r:id="rId1" display="http://mitsuakikawamorita.com/blog/?p=254"/>
+    <hyperlink ref="A5" r:id="rId2" display="https://www.javadrive.jp/servlet/jsp_scripting/index4.html"/>
+    <hyperlink ref="A7" r:id="rId3" display="http://www.rsch.tuis.ac.jp/~nagai/SYS/SYS11n.html"/>
+    <hyperlink ref="A9" r:id="rId4" display="https://ameblo.jp/tyoku123/entry-10434812348.html"/>
+    <hyperlink ref="A11" r:id="rId5" display="http://seesaawiki.jp/w/warp1030/d/%3Clogic:iterate%3E%A4%C7%B2%F3%A4%C3%A4%C6%A4%A4%A4%EB%B2%F3%BF%F4%A4%F2%BC%E8%C6%C0%A4%B9%A4%EBindexId"/>
+    <hyperlink ref="A13" r:id="rId6" display="https://teratail.com/questions/99801"/>
+    <hyperlink ref="A15" r:id="rId7" display="http://tag.main.jp/index.html"/>
+    <hyperlink ref="A17" r:id="rId8" display="https://www.nishishi.com/javascript-tips/confirm-dialog.html"/>
+    <hyperlink ref="A19" r:id="rId9" display="https://www13.atwiki.jp/lele/pages/14.html"/>
+    <hyperlink ref="A21" r:id="rId10" display="https://ameblo.jp/tyoku123/entry-10434877520.html"/>
+    <hyperlink ref="A23" r:id="rId11" display="http://www.gi.ce.t.kyoto-u.ac.jp/user/susaki/envinfo/jsp_form.html"/>
+    <hyperlink ref="A25" r:id="rId12" display="http://www.techscore.com/blog/2012/11/28/%E6%95%B0%E5%80%A4-%E2%87%94-%E6%96%87%E5%AD%97%E5%88%97%E5%A4%89%E6%8F%9B-java%E7%B7%A8/"/>
+    <hyperlink ref="A27" r:id="rId13" display="http://www.htmq.com/" tooltip="http://www.htmq.com/"/>
+    <hyperlink ref="E4" r:id="rId14" display="https://qiita.com/panage/items/4476ff91d1fcec67f525"/>
+    <hyperlink ref="E6" r:id="rId15" display="http://www.atmarkit.co.jp/ait/articles/0409/07/news099.html"/>
+    <hyperlink ref="E8" r:id="rId16" display="http://d.hatena.ne.jp/akihito_sado/20110904/1315153803"/>
+    <hyperlink ref="E10" r:id="rId17" display="http://www.ne.jp/asahi/hishidama/home/tech/apache/poi/cell.html"/>
+    <hyperlink ref="E14" r:id="rId18" display="http://www.netyasun.com/home/color.htmlｓ"/>
+    <hyperlink ref="E16" r:id="rId19" display="https://www.colordic.org/" tooltip="https://www.colordic.org/"/>
+    <hyperlink ref="A29" r:id="rId20" display="https://www.sejuku.net/blog/25060"/>
+    <hyperlink ref="A31" r:id="rId21" display="https://www.ipentec.com/document/javascript-exec-process-when-selectbox-change-select-item"/>
+    <hyperlink ref="A33" r:id="rId22" display="https://www.ajaxtower.jp/js/event/index3.html"/>
+    <hyperlink ref="A35" r:id="rId23" display="https://oni-on-design.com/2013/11/233"/>
+    <hyperlink ref="H4" r:id="rId24" display="https://handywebdesign.net/2013/03/layout-and-design-about-menu/"/>
+    <hyperlink ref="E19" r:id="rId25" display="https://kagesai.net/search-form-design/"/>
+    <hyperlink ref="E21" r:id="rId26" display="https://lopan.jp/css-animation/"/>
+    <hyperlink ref="E23" r:id="rId27" display="http://www.nowhere.co.jp/blog/archives/20180720-150018.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1232,14 +1482,37 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="44.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="27" spans="1:2">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/取っておくもの/新規 Microsoft Excel ワークブック.xlsx
+++ b/取っておくもの/新規 Microsoft Excel ワークブック.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71">
   <si>
     <t>HTMLに動的にdivなどを追加する方法</t>
   </si>
@@ -187,6 +187,42 @@
   </si>
   <si>
     <t>https://oni-on-design.com/2013/11/233</t>
+  </si>
+  <si>
+    <t>【Javaで正規表現】文字列をチェックするパターンの書き方とサンプル</t>
+  </si>
+  <si>
+    <t>https://www.sejuku.net/blog/13215</t>
+  </si>
+  <si>
+    <t>フォーム関連要素（終） HTML5で仕様になった入力値チェック＋便利な3Tips (1/3)</t>
+  </si>
+  <si>
+    <t>http://www.atmarkit.co.jp/ait/articles/1104/25/news137.html</t>
+  </si>
+  <si>
+    <t>フォーム関連要素（2） HTML5でinput要素に追加された新しいタイプ13連発 (1/3)</t>
+  </si>
+  <si>
+    <t>http://www.atmarkit.co.jp/ait/articles/1103/07/news104.html</t>
+  </si>
+  <si>
+    <t>Eclipse で HTML5 のタグを使うと警告が出てしまう</t>
+  </si>
+  <si>
+    <t>http://snagimo.com/warning-of-unknown-tags-from-eclipse-when-wrote-html5-tags</t>
+  </si>
+  <si>
+    <t>HTML5 でフォームを大幅に改良</t>
+  </si>
+  <si>
+    <t>https://www.html5rocks.com/ja/tutorials/forms/html5forms/</t>
+  </si>
+  <si>
+    <t>HTML5で簡単に入力チェックを行う方法</t>
+  </si>
+  <si>
+    <t>http://scrap.php.xdomain.jp/html5_validation/</t>
   </si>
   <si>
     <t>NoClassDefFoundError</t>
@@ -299,6 +335,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -340,14 +384,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="ＭＳ Ｐゴシック"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,36 +430,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -442,7 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,31 +520,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +556,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -533,30 +593,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -624,6 +660,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -652,21 +703,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -684,136 +720,136 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1179,10 +1215,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A2:H35"/>
+  <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1346,7 +1382,7 @@
       <c r="A21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1424,6 +1460,66 @@
     <row r="35" spans="1:1">
       <c r="A35" s="5" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="5" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1455,6 +1551,12 @@
     <hyperlink ref="E19" r:id="rId25" display="https://kagesai.net/search-form-design/"/>
     <hyperlink ref="E21" r:id="rId26" display="https://lopan.jp/css-animation/"/>
     <hyperlink ref="E23" r:id="rId27" display="http://www.nowhere.co.jp/blog/archives/20180720-150018.html"/>
+    <hyperlink ref="A37" r:id="rId28" display="https://www.sejuku.net/blog/13215"/>
+    <hyperlink ref="A39" r:id="rId29" display="http://www.atmarkit.co.jp/ait/articles/1104/25/news137.html"/>
+    <hyperlink ref="A41" r:id="rId30" display="http://www.atmarkit.co.jp/ait/articles/1103/07/news104.html"/>
+    <hyperlink ref="A43" r:id="rId31" display="http://snagimo.com/warning-of-unknown-tags-from-eclipse-when-wrote-html5-tags"/>
+    <hyperlink ref="A45" r:id="rId32" display="https://www.html5rocks.com/ja/tutorials/forms/html5forms/"/>
+    <hyperlink ref="A47" r:id="rId33" display="http://scrap.php.xdomain.jp/html5_validation/"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1496,10 +1598,10 @@
   <sheetData>
     <row r="1" ht="27" spans="1:2">
       <c r="A1" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:2">
